--- a/Planilla de Product Backlog.xlsx
+++ b/Planilla de Product Backlog.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>Columna</t>
   </si>
@@ -206,9 +206,6 @@
     <t>correccion de permisos a roles</t>
   </si>
   <si>
-    <t>asignar codigo a proyecto</t>
-  </si>
-  <si>
     <t>Como un Administrador, necesito asignar un estado al proyecto, con la finalidad de ver la situación del mismo.</t>
   </si>
   <si>
@@ -239,15 +236,6 @@
     <t>crear HU</t>
   </si>
   <si>
-    <t xml:space="preserve">Como un Product Owner, necesito crear historias de usuario, con la finalidad de lograr la interacción con el equipo de trabajo y el usuario, por encima de documentar </t>
-  </si>
-  <si>
-    <t>Como un Product Owner, necesito eliminar historias de usuario, con la finalidad de obtener solo las mas relevantes.</t>
-  </si>
-  <si>
-    <t>Como un Product Owner, necesito asignar historias de usuario a un sprint, con la finalidad de   organizar las tareas del Product backlog .</t>
-  </si>
-  <si>
     <t>eliminar HU</t>
   </si>
   <si>
@@ -260,10 +248,40 @@
     <t>2 días</t>
   </si>
   <si>
-    <t>Como un Product Owner, necesito fijar la fecha de inicio y fin a las historias de usuario, con la finalidad de tener actualizado el tiempo estimado del proyecto.</t>
-  </si>
-  <si>
     <t>fijar tiempo HU</t>
+  </si>
+  <si>
+    <t>asignar estado a proyecto</t>
+  </si>
+  <si>
+    <t>Como un Scrum Master, necesito modificar tiempo asignado inicialmente de las historias de usuarios, con la finalidad de actualidad el gráfico de Burndown Chart.</t>
+  </si>
+  <si>
+    <t>Como un Scrum Master, necesito asignar historias de usuario a un sprint, con la finalidad de   organizar las tareas del Product backlog .</t>
+  </si>
+  <si>
+    <t>Como un Scrum Master, necesito fijar la fecha de inicio y fin a las historias de usuario, con la finalidad de tener actualizado el tiempo estimado del proyecto.</t>
+  </si>
+  <si>
+    <t>Como un Scrum Master, necesito eliminar historias de usuario, con la finalidad de obtener solo las mas relevantes.</t>
+  </si>
+  <si>
+    <t>Como un Scrum Master, necesito crear historias de usuario, con la finalidad de lograr la interacción con el equipo de trabajo y el usuario.</t>
+  </si>
+  <si>
+    <t>modificar tiempo HU</t>
+  </si>
+  <si>
+    <t>Como un Product Owner, necesito fijar prioridad a las historias de usuarios, con la finalidad de definir las historias más preponderantes.</t>
+  </si>
+  <si>
+    <t>fijar prioridad HU</t>
+  </si>
+  <si>
+    <t>Como un Product Owner, necesito un gráfico de Burndown Chart, con la finalidad de asegurar una medición diaria del trabajo.</t>
+  </si>
+  <si>
+    <t>gráfico BC</t>
   </si>
 </sst>
 </file>
@@ -451,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -465,18 +483,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,246 +504,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -760,7 +544,7 @@
           <bgColor theme="3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -770,6 +554,241 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -783,17 +802,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:I53" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B4:I53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A4:H53" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A4:H53"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Identificador (ID) de la Historia" dataDxfId="7"/>
-    <tableColumn id="2" name="Enunciado de la Historia" dataDxfId="6"/>
-    <tableColumn id="3" name="Alias" dataDxfId="5"/>
-    <tableColumn id="4" name="Estado" dataDxfId="4"/>
-    <tableColumn id="5" name="Dimensión / Esfuerzo" dataDxfId="3"/>
-    <tableColumn id="6" name="Iteración (Sprint)" dataDxfId="2"/>
-    <tableColumn id="7" name="Prioridad" dataDxfId="1"/>
-    <tableColumn id="8" name="Comentarios" dataDxfId="0"/>
+    <tableColumn id="1" name="Identificador (ID) de la Historia" dataDxfId="8"/>
+    <tableColumn id="2" name="Enunciado de la Historia" dataDxfId="7"/>
+    <tableColumn id="3" name="Alias" dataDxfId="6"/>
+    <tableColumn id="4" name="Estado" dataDxfId="5"/>
+    <tableColumn id="5" name="Dimensión / Esfuerzo" dataDxfId="4"/>
+    <tableColumn id="6" name="Iteración (Sprint)" dataDxfId="3"/>
+    <tableColumn id="7" name="Prioridad" dataDxfId="2"/>
+    <tableColumn id="8" name="Comentarios" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1086,950 +1105,946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="30.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="2:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="D23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
-        <v>20</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="C25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
-        <v>21</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
-        <v>22</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="D27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
-        <v>23</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
-        <v>24</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <v>25</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
-        <v>26</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
-        <v>27</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
-        <v>29</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
-        <v>30</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
-        <v>31</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
-        <v>32</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
-        <v>33</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>35</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
-        <v>36</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
-        <v>38</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
-        <v>39</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
-        <v>40</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
-        <v>41</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
-        <v>42</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
-        <v>43</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
-        <v>44</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
-        <v>45</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>46</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
-        <v>47</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
-        <v>48</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
-        <v>49</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
-        <v>50</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2045,7 +2060,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
